--- a/biology/Botanique/Rinorea_riana/Rinorea_riana.xlsx
+++ b/biology/Botanique/Rinorea_riana/Rinorea_riana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rinorea riana est une espèce d'arbuste néotropical appartenant à la famille des Violaceae.
-Rinorea riana est connu en Guyane sous les noms de Bofo tiki (Aluku)[4], Boumbikidia (Aukan), Ouagnon (Wayãpi), Pacumleima, Riana = Riane (Caraibe selon Aublet, 1775).
-Au Venezuela, on l'appelle aussi Caspadillo (=Gaspadillo) (marrón) (Amacuro, Amazonas, Bolívar), Molinillo, Pata grillo/grullo, Pata pauji (Bolívar), Jö’nö jodedü (Yekwana), Gaspadillo, Gaspadillo blanco, Mamoncilla, Molenillo[5].
-C'est encore Mamusare (Arawak), Shero (Wapisiana), Shipiye (Macusi) au Guyana, Boembi kiridia (Aukan), Lélé(-tiki), Manari(e)-tiki(e) (Sranan tongo) au Suriname, et Pywa'y-hu dans le Maranhão (Brésil)[6].
+Rinorea riana est connu en Guyane sous les noms de Bofo tiki (Aluku), Boumbikidia (Aukan), Ouagnon (Wayãpi), Pacumleima, Riana = Riane (Caraibe selon Aublet, 1775).
+Au Venezuela, on l'appelle aussi Caspadillo (=Gaspadillo) (marrón) (Amacuro, Amazonas, Bolívar), Molinillo, Pata grillo/grullo, Pata pauji (Bolívar), Jö’nö jodedü (Yekwana), Gaspadillo, Gaspadillo blanco, Mamoncilla, Molenillo.
+C'est encore Mamusare (Arawak), Shero (Wapisiana), Shipiye (Macusi) au Guyana, Boembi kiridia (Aukan), Lélé(-tiki), Manari(e)-tiki(e) (Sranan tongo) au Suriname, et Pywa'y-hu dans le Maranhão (Brésil).
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Rinorea riana est un petit arbre, un arbuste ou un arbrisseau haut de 1 à 4 (8) m, à rameaux violacés couverts de nombreuses grandes lenticelles calleuses (généralement) blanchâtres, peu pubérulentes à glabrescentes.
 L'écorce externe est grise avec des taches blanches. Le bois est jaune à chartacée.
@@ -540,14 +554,14 @@
 Le style mesure (1,25-)1,75-2,5 × ca.0.2 mm (dépassant les étamines d'environ 0,25-0,5 mm), est filiforme, dressé ou légèrement incurvé près de la base, principalement glabre, pileux près de sa base, et porte une stigmate tronqué.
 Le fruit est une capsule symétrique, mesurant 15-18 mm, de forme (ob)ovale à orbiculaire, acuminée, coriace à subligneuse, de couleur vert pâle à marron à l'état frais, veloutée avec peu de poils (indumentum marron à l'état sec), avec une nervation orange à brun rougeâtre à l'état frais.
 Les 3 valves sont égales, mesurant 1,5-2,75 × 0,5-1 cm.
-On compte 1-2 graines par valve, de forme globuleuse, longues de 4 à 10 mm, sub-roussâtres hirtelleuses[7],[8],[5],[6].
+On compte 1-2 graines par valve, de forme globuleuse, longues de 4 à 10 mm, sub-roussâtres hirtelleuses.
 Rinorea riana se caractérise par la combinaison des caractères suivants :
 indument principalement marron (une fois sec),
 rameaux à grosses lenticelles calleuses (plus grosses et moins nombreuses que chez R. brevipes dont les rameaux séchés virent également au violacés avec des lenticelles blanchâtres),
 feuilles dépourvues de domaties, avec des nervures médiane et latérales glabres sur les deux faces (comme chez R. flavescens),
 ovaires et fruits juvéniles érigés hispides « épineux » en combinaison avec densément hispiduleux (indumentum initialement jaune paille, vire rapidement au marron au séchage),
 sa capsule veloutée à faiblement poilue (indumentum séché est marron),
-fleurs virant au brun chocolat au séchage (et non orange comme les autres espèces)[6].</t>
+fleurs virant au brun chocolat au séchage (et non orange comme les autres espèces).</t>
         </is>
       </c>
     </row>
@@ -575,9 +589,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rinorea riana est répandu de Trinidad à la Basse Amazonie (Pará, Brésil), en passant par les Guyanes (Guyana, Suriname, Guyane), et le Venezuela (Bas Bassin de l'Orénoque : Delta Amacuro, Bolívar, Amazonas)[5],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rinorea riana est répandu de Trinidad à la Basse Amazonie (Pará, Brésil), en passant par les Guyanes (Guyana, Suriname, Guyane), et le Venezuela (Bas Bassin de l'Orénoque : Delta Amacuro, Bolívar, Amazonas),.
 </t>
         </is>
       </c>
@@ -606,14 +622,16 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Rinorea riana est une espèce de sous-bois assez commune dans les forêts anciennes des basses terres ainsi que dans les zones vallonnées ou sub-montagneuses autour de 0 à 800 m d'altitude, et également enregistré dans les forêts poussant sur des minerais.
 Des spécimens dans des zones vallonnées ont été collectés sur des sommets, dans des ravins rocheux et sur les pentes. On l'observe également le long des rivières et des ruisseaux. Dans les basses terres, on le rencontre dans des zones non inondées telles que des dunes et rives hautes fluviales, ainsi que dans des zones périodiquement inondées, sur des sols granitiques, schistiques, ferrobauxitiques, argileux ou sableux.
-Rinorea riana fleurit et fructifie probablement tout au long de l'année[6].
-On le rencontre au Venezueladans les sous-bois des forêts sempervirentes de plaine à basse montagne, saisonnièrement inondées ou non, niveau de la mer jusqu'à 700 m d'altitude[5].
-En Guyane, Rinorea riana pousse dans les forêts non inondées à toutes les altitudes, et fleurit en janvier août, et fructifie en janvier, février, mars, mai, juin, août[7].
-La place phytosociologique de Rinorea riana a été abordée dans le Pará[9],[10].
+Rinorea riana fleurit et fructifie probablement tout au long de l'année.
+On le rencontre au Venezueladans les sous-bois des forêts sempervirentes de plaine à basse montagne, saisonnièrement inondées ou non, niveau de la mer jusqu'à 700 m d'altitude.
+En Guyane, Rinorea riana pousse dans les forêts non inondées à toutes les altitudes, et fleurit en janvier août, et fructifie en janvier, février, mars, mai, juin, août.
+La place phytosociologique de Rinorea riana a été abordée dans le Pará,.
 </t>
         </is>
       </c>
@@ -642,9 +660,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Sranan tongo Manari-tiki signifie que les rameaux et les brindilles peuvent être utilisés pour faire des tamis[6], de même que Lélé(-tiki) se rapporte à la fabrication de lélé.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Sranan tongo Manari-tiki signifie que les rameaux et les brindilles peuvent être utilisés pour faire des tamis, de même que Lélé(-tiki) se rapporte à la fabrication de lélé.
 </t>
         </is>
       </c>
@@ -673,9 +693,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet qui le premier décrivit Rinorea riana var. riana sous le nom de Riana guianensis, en proposa le protologue suivant[11]: 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet qui le premier décrivit Rinorea riana var. riana sous le nom de Riana guianensis, en proposa le protologue suivant: 
 « RIANA Guianenſis. (Tabula 94.)
 Frutex, trunco ramoſo, decempedali. Rami erecti, nodoſi. Folia oppoſita, ovato-oblonga, acuta, denticulata, glabra, rigida, petiolata. Stipulæ breves, binæ, oppoſitæ, acutæ, deciduæ, una ab utroque latere intra baſim petiolorum. Flores alternatim diſpoſiti, in ſpicâ terminali ; lingulus flos brevi pedunculo inſidet, qui ad baſim quatuor squamulis munitur. Corolla alba.
 Florebat Auguſto.
